--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.6939553731759</v>
+        <v>347.3056761187453</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.6862471888739</v>
+        <v>475.1989481107231</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.6818053519174</v>
+        <v>429.8466274489474</v>
       </c>
       <c r="AD2" t="n">
-        <v>298693.9553731759</v>
+        <v>347305.6761187454</v>
       </c>
       <c r="AE2" t="n">
-        <v>408686.2471888739</v>
+        <v>475198.9481107231</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.535728106636152e-06</v>
+        <v>4.691760887483958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.992838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>369681.8053519174</v>
+        <v>429846.6274489474</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.4554289832856</v>
+        <v>168.8466302106416</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.6502908585917</v>
+        <v>231.0234084416969</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.7868245030293</v>
+        <v>208.9748585834782</v>
       </c>
       <c r="AD3" t="n">
-        <v>144455.4289832856</v>
+        <v>168846.6302106416</v>
       </c>
       <c r="AE3" t="n">
-        <v>197650.2908585917</v>
+        <v>231023.4084416969</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950970443997278e-06</v>
+        <v>7.310329742466906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.846028645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178786.8245030293</v>
+        <v>208974.8585834781</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.6639527304343</v>
+        <v>153.0551539577903</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.0436963786878</v>
+        <v>209.4168139617929</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.2423330752347</v>
+        <v>189.4303671556836</v>
       </c>
       <c r="AD4" t="n">
-        <v>128663.9527304344</v>
+        <v>153055.1539577903</v>
       </c>
       <c r="AE4" t="n">
-        <v>176043.6963786878</v>
+        <v>209416.8139617929</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.250208581696342e-06</v>
+        <v>7.863998642072417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.575846354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>159242.3330752347</v>
+        <v>189430.3671556836</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.5621023878389</v>
+        <v>242.0896161618242</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.0463107663419</v>
+        <v>331.2376930725444</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.5057505810237</v>
+        <v>299.6248325408213</v>
       </c>
       <c r="AD2" t="n">
-        <v>218562.1023878389</v>
+        <v>242089.6161618241</v>
       </c>
       <c r="AE2" t="n">
-        <v>299046.3107663419</v>
+        <v>331237.6930725444</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13546662693106e-06</v>
+        <v>5.976683295015946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>270505.7505810237</v>
+        <v>299624.8325408213</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.7180939438602</v>
+        <v>145.2455182092943</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.5400659572389</v>
+        <v>198.731325793893</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.6457158027767</v>
+        <v>179.7646869813478</v>
       </c>
       <c r="AD3" t="n">
-        <v>121718.0939438602</v>
+        <v>145245.5182092943</v>
       </c>
       <c r="AE3" t="n">
-        <v>166540.0659572389</v>
+        <v>198731.325793893</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323279477807384e-06</v>
+        <v>8.240837906792616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.636067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>150645.7158027767</v>
+        <v>179764.6869813478</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.2633779083038</v>
+        <v>145.7908021737379</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.2861475336209</v>
+        <v>199.4774073702751</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.3205924006412</v>
+        <v>180.4395635792122</v>
       </c>
       <c r="AD4" t="n">
-        <v>122263.3779083038</v>
+        <v>145790.8021737379</v>
       </c>
       <c r="AE4" t="n">
-        <v>167286.1475336209</v>
+        <v>199477.4073702751</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320285316287042e-06</v>
+        <v>8.235130572838715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>151320.5924006412</v>
+        <v>180439.5635792122</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9432239352306</v>
+        <v>142.7848575715915</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.8480987434659</v>
+        <v>195.3645413527039</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9243503722131</v>
+        <v>176.719223721913</v>
       </c>
       <c r="AD2" t="n">
-        <v>121943.2239352306</v>
+        <v>142784.8575715915</v>
       </c>
       <c r="AE2" t="n">
-        <v>166848.0987434659</v>
+        <v>195364.5413527039</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.216187118246837e-06</v>
+        <v>8.979375173325491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>150924.3503722131</v>
+        <v>176719.223721913</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2197904456816</v>
+        <v>137.163382538082</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6488004261183</v>
+        <v>187.6729912098847</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6030201749739</v>
+        <v>169.7617443295636</v>
       </c>
       <c r="AD2" t="n">
-        <v>115219.7904456816</v>
+        <v>137163.382538082</v>
       </c>
       <c r="AE2" t="n">
-        <v>157648.8004261183</v>
+        <v>187672.9912098847</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.289709928407717e-06</v>
+        <v>8.709594243211803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.912760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>142603.0201749739</v>
+        <v>169761.7443295636</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.880174838605</v>
+        <v>135.8237669310054</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.8158792528475</v>
+        <v>185.8400700366139</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.9450304259585</v>
+        <v>168.1037545805482</v>
       </c>
       <c r="AD3" t="n">
-        <v>113880.174838605</v>
+        <v>135823.7669310054</v>
       </c>
       <c r="AE3" t="n">
-        <v>155815.8792528475</v>
+        <v>185840.0700366139</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337860259775736e-06</v>
+        <v>8.807356062982984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.868815104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140945.0304259585</v>
+        <v>168103.7545805481</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9394783766194</v>
+        <v>143.1177958251777</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2112180218174</v>
+        <v>195.8200821594594</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1573754597891</v>
+        <v>177.1312883534275</v>
       </c>
       <c r="AD2" t="n">
-        <v>122939.4783766194</v>
+        <v>143117.7958251777</v>
       </c>
       <c r="AE2" t="n">
-        <v>168211.2180218174</v>
+        <v>195820.0821594594</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.987543192917993e-06</v>
+        <v>8.879479827577864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.568684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152157.3754597891</v>
+        <v>177131.2883534275</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.5603293746924</v>
+        <v>260.31487953843</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.6722789554775</v>
+        <v>356.1743024664464</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.7814509289595</v>
+        <v>322.1815269328211</v>
       </c>
       <c r="AD2" t="n">
-        <v>236560.3293746924</v>
+        <v>260314.87953843</v>
       </c>
       <c r="AE2" t="n">
-        <v>323672.2789554775</v>
+        <v>356174.3024664464</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.970328165648533e-06</v>
+        <v>5.616188579495336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.244140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>292781.4509289595</v>
+        <v>322181.5269328211</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5641323676375</v>
+        <v>148.3185930228209</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.4341412870029</v>
+        <v>202.9360423282504</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.1681460484383</v>
+        <v>183.5681112710241</v>
       </c>
       <c r="AD3" t="n">
-        <v>124564.1323676375</v>
+        <v>148318.5930228209</v>
       </c>
       <c r="AE3" t="n">
-        <v>170434.1412870029</v>
+        <v>202936.0423282504</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.278987829245683e-06</v>
+        <v>8.090554726016999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.640950520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154168.1460484383</v>
+        <v>183568.1112710241</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.8116582093949</v>
+        <v>147.5661188645782</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.4045729468789</v>
+        <v>201.9064739881264</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.2368382656872</v>
+        <v>182.636803488273</v>
       </c>
       <c r="AD4" t="n">
-        <v>123811.6582093949</v>
+        <v>147566.1188645783</v>
       </c>
       <c r="AE4" t="n">
-        <v>169404.5729468789</v>
+        <v>201906.4739881264</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.305406061190739e-06</v>
+        <v>8.140505359167963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6181640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>153236.8382656872</v>
+        <v>182636.803488273</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5574138844702</v>
+        <v>154.8708399842944</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7931928788204</v>
+        <v>211.9011156856687</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.3974916637741</v>
+        <v>191.6775706097728</v>
       </c>
       <c r="AD2" t="n">
-        <v>125557.4138844702</v>
+        <v>154870.8399842944</v>
       </c>
       <c r="AE2" t="n">
-        <v>171793.1928788204</v>
+        <v>211901.1156856687</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.778134354516657e-06</v>
+        <v>8.661625191337738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155397.4916637741</v>
+        <v>191677.5706097728</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.7806452635285</v>
+        <v>183.4859752508216</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.9871719909208</v>
+        <v>251.053606167983</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.9919050501055</v>
+        <v>227.093402351333</v>
       </c>
       <c r="AD2" t="n">
-        <v>160780.6452635285</v>
+        <v>183485.9752508216</v>
       </c>
       <c r="AE2" t="n">
-        <v>219987.1719909208</v>
+        <v>251053.606167983</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694433506215049e-06</v>
+        <v>7.241038615353603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>198991.9050501054</v>
+        <v>227093.402351333</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5762353806416</v>
+        <v>140.3668167139552</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.8729923451424</v>
+        <v>192.0560711748538</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5194997424291</v>
+        <v>173.7265092943688</v>
       </c>
       <c r="AD3" t="n">
-        <v>117576.2353806416</v>
+        <v>140366.8167139553</v>
       </c>
       <c r="AE3" t="n">
-        <v>160872.9923451424</v>
+        <v>192056.0711748538</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.349330931249425e-06</v>
+        <v>8.524628517781672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>145519.4997424291</v>
+        <v>173726.5092943689</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.095592226091</v>
+        <v>224.9478831695326</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0971757092632</v>
+        <v>307.7836177526161</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2738663083259</v>
+        <v>278.4091812514181</v>
       </c>
       <c r="AD2" t="n">
-        <v>190095.592226091</v>
+        <v>224947.8831695326</v>
       </c>
       <c r="AE2" t="n">
-        <v>260097.1757092632</v>
+        <v>307783.6177526161</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312673504927453e-06</v>
+        <v>6.369287555059014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7900390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>235273.8663083259</v>
+        <v>278409.1812514181</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.9138810643892</v>
+        <v>144.205635596398</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.439706416179</v>
+        <v>197.3085125265459</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6503730319509</v>
+        <v>178.4776650153049</v>
       </c>
       <c r="AD3" t="n">
-        <v>120913.8810643892</v>
+        <v>144205.635596398</v>
       </c>
       <c r="AE3" t="n">
-        <v>165439.706416179</v>
+        <v>197308.5125265459</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.315689615161116e-06</v>
+        <v>8.297789720736486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.6767578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>149650.3730319509</v>
+        <v>178477.6650153049</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.8100462551497</v>
+        <v>312.0886125732583</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.3754731667718</v>
+        <v>427.0134081005965</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.3592876575375</v>
+        <v>386.2598477485571</v>
       </c>
       <c r="AD2" t="n">
-        <v>275810.0462551497</v>
+        <v>312088.6125732583</v>
       </c>
       <c r="AE2" t="n">
-        <v>377375.4731667718</v>
+        <v>427013.4081005965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.675521562461197e-06</v>
+        <v>4.984293742121732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.725911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341359.2876575375</v>
+        <v>386259.8477485571</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.6210082444157</v>
+        <v>161.8067191231545</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.2991348903115</v>
+        <v>221.3910915128443</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.3281297359289</v>
+        <v>200.2618364632705</v>
       </c>
       <c r="AD3" t="n">
-        <v>137621.0082444157</v>
+        <v>161806.7191231545</v>
       </c>
       <c r="AE3" t="n">
-        <v>188299.1348903115</v>
+        <v>221391.0915128443</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056338768990821e-06</v>
+        <v>7.556651467838782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170328.1297359289</v>
+        <v>200261.8364632705</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.3745745674501</v>
+        <v>151.5602854461888</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.2795122927437</v>
+        <v>207.3714689152765</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.6465202424046</v>
+        <v>187.5802269697462</v>
       </c>
       <c r="AD4" t="n">
-        <v>127374.5745674501</v>
+        <v>151560.2854461888</v>
       </c>
       <c r="AE4" t="n">
-        <v>174279.5122927437</v>
+        <v>207371.4689152765</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.259245114225136e-06</v>
+        <v>7.93465059928957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.597005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157646.5202424046</v>
+        <v>187580.2269697462</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0034275064026</v>
+        <v>156.194196264586</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2987160424233</v>
+        <v>213.7117901307215</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2365227921125</v>
+        <v>193.3154368270878</v>
       </c>
       <c r="AD2" t="n">
-        <v>123003.4275064026</v>
+        <v>156194.196264586</v>
       </c>
       <c r="AE2" t="n">
-        <v>168298.7160424233</v>
+        <v>213711.7901307215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.145814193034063e-06</v>
+        <v>8.31027358411048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152236.5227921125</v>
+        <v>193315.4368270878</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.3311298672853</v>
+        <v>137.572096845503</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.8011399347049</v>
+        <v>188.2322121565005</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.7408206146709</v>
+        <v>170.2675940139061</v>
       </c>
       <c r="AD3" t="n">
-        <v>115331.1298672853</v>
+        <v>137572.0968455031</v>
       </c>
       <c r="AE3" t="n">
-        <v>157801.1399347049</v>
+        <v>188232.2121565005</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337634079074392e-06</v>
+        <v>8.694776038307884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.819986979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>142740.8206146709</v>
+        <v>170267.5940139061</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.7754551687594</v>
+        <v>143.9807018364827</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.9867942326304</v>
+        <v>197.0007482328527</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.9543703620612</v>
+        <v>178.1992733138518</v>
       </c>
       <c r="AD2" t="n">
-        <v>122775.4551687594</v>
+        <v>143980.7018364827</v>
       </c>
       <c r="AE2" t="n">
-        <v>167986.7942326303</v>
+        <v>197000.7482328527</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267868516519548e-06</v>
+        <v>8.928647840165677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.044596354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151954.3703620612</v>
+        <v>178199.2733138518</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.2048441296149</v>
+        <v>142.6503631893819</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.2060590352907</v>
+        <v>195.1805202054916</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.2481474361867</v>
+        <v>176.5527652947153</v>
       </c>
       <c r="AD2" t="n">
-        <v>122204.8441296149</v>
+        <v>142650.363189382</v>
       </c>
       <c r="AE2" t="n">
-        <v>167206.0590352907</v>
+        <v>195180.5202054916</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120337237973921e-06</v>
+        <v>8.957018878525534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.334309895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>151248.1474361866</v>
+        <v>176552.7652947153</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.0675634561462</v>
+        <v>169.6046954792675</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.0148637822833</v>
+        <v>232.0606267857096</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.5937960810195</v>
+        <v>209.9130862644838</v>
       </c>
       <c r="AD2" t="n">
-        <v>141067.5634561462</v>
+        <v>169604.6954792675</v>
       </c>
       <c r="AE2" t="n">
-        <v>193014.8637822833</v>
+        <v>232060.6267857096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438541978061005e-06</v>
+        <v>8.17866481002404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174593.7960810195</v>
+        <v>209913.0862644837</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.4734935364116</v>
+        <v>198.6053469932901</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.0905752005873</v>
+        <v>271.7405976056233</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.1766676727514</v>
+        <v>245.8060563605464</v>
       </c>
       <c r="AD2" t="n">
-        <v>175473.4935364116</v>
+        <v>198605.3469932901</v>
       </c>
       <c r="AE2" t="n">
-        <v>240090.5752005873</v>
+        <v>271740.5976056234</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.489322442247681e-06</v>
+        <v>6.771303046709414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.593098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217176.6676727514</v>
+        <v>245806.0563605464</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.6871280745447</v>
+        <v>141.7336406768516</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.3929647380667</v>
+        <v>193.9262200209051</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.8944081034679</v>
+        <v>175.418173759324</v>
       </c>
       <c r="AD3" t="n">
-        <v>118687.1280745447</v>
+        <v>141733.6406768516</v>
       </c>
       <c r="AE3" t="n">
-        <v>162392.9647380667</v>
+        <v>193926.2200209051</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350697527686127e-06</v>
+        <v>8.442868755217507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.683268229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>146894.4081034679</v>
+        <v>175418.173759324</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.5542753396285</v>
+        <v>291.3441752514129</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.6606337784463</v>
+        <v>398.629953776863</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.2895136425175</v>
+        <v>360.5852704690525</v>
       </c>
       <c r="AD2" t="n">
-        <v>255554.2753396285</v>
+        <v>291344.1752514129</v>
       </c>
       <c r="AE2" t="n">
-        <v>349660.6337784463</v>
+        <v>398629.9537768631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.817628714025275e-06</v>
+        <v>5.286976623892602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>316289.5136425175</v>
+        <v>360585.2704690525</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.8797587829313</v>
+        <v>152.8534201911799</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.3389717404051</v>
+        <v>209.1407929224511</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.5094277708513</v>
+        <v>189.1806891769384</v>
       </c>
       <c r="AD3" t="n">
-        <v>128879.7587829313</v>
+        <v>152853.4201911799</v>
       </c>
       <c r="AE3" t="n">
-        <v>176338.9717404051</v>
+        <v>209140.792922451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.209361932397048e-06</v>
+        <v>7.898414020026539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.668619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159509.4277708513</v>
+        <v>189180.6891769384</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.6233780121997</v>
+        <v>149.5970394204483</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.8834479085118</v>
+        <v>204.6852690905578</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.4791328801056</v>
+        <v>185.1503942861926</v>
       </c>
       <c r="AD4" t="n">
-        <v>125623.3780121997</v>
+        <v>149597.0394204483</v>
       </c>
       <c r="AE4" t="n">
-        <v>171883.4479085118</v>
+        <v>204685.2690905578</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280818029044664e-06</v>
+        <v>8.032493684508255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6083984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>155479.1328801056</v>
+        <v>185150.3942861926</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.7349645309599</v>
+        <v>200.2903955293214</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.0294019479859</v>
+        <v>274.0461553517152</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.648350253375</v>
+        <v>247.8915749112224</v>
       </c>
       <c r="AD2" t="n">
-        <v>163734.9645309599</v>
+        <v>200290.3955293214</v>
       </c>
       <c r="AE2" t="n">
-        <v>224029.4019479859</v>
+        <v>274046.1553517152</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.858029583332349e-06</v>
+        <v>7.147715093387639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.943359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>202648.350253375</v>
+        <v>247891.5749112224</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7879457379005</v>
+        <v>134.4158396865861</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.3214432115172</v>
+        <v>183.913681867434</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5932212629581</v>
+        <v>166.3612181945315</v>
       </c>
       <c r="AD2" t="n">
-        <v>112787.9457379005</v>
+        <v>134415.8396865861</v>
       </c>
       <c r="AE2" t="n">
-        <v>154321.4432115172</v>
+        <v>183913.681867434</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30484254884892e-06</v>
+        <v>8.864891050652129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.951822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>139593.2212629581</v>
+        <v>166361.2181945315</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3493072775235</v>
+        <v>134.977201226209</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.0895228355523</v>
+        <v>184.681761491469</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.287996445682</v>
+        <v>167.0559933772554</v>
       </c>
       <c r="AD3" t="n">
-        <v>113349.3072775235</v>
+        <v>134977.2012262091</v>
       </c>
       <c r="AE3" t="n">
-        <v>155089.5228355523</v>
+        <v>184681.761491469</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303901942319675e-06</v>
+        <v>8.862954075185855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.951822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140287.996445682</v>
+        <v>167055.9933772554</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2207511941308</v>
+        <v>169.658114505657</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.4339267048742</v>
+        <v>232.1337170542969</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.2093554545099</v>
+        <v>209.97920090042</v>
       </c>
       <c r="AD2" t="n">
-        <v>147220.7511941308</v>
+        <v>169658.1145056571</v>
       </c>
       <c r="AE2" t="n">
-        <v>201433.9267048741</v>
+        <v>232133.7170542969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.910190237507398e-06</v>
+        <v>7.746806772597977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.187825520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182209.3554545099</v>
+        <v>209979.20090042</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.494077888129</v>
+        <v>139.0166925456758</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.3923367224682</v>
+        <v>190.2087717245402</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.1801558142693</v>
+        <v>172.0555135108916</v>
       </c>
       <c r="AD3" t="n">
-        <v>116494.077888129</v>
+        <v>139016.6925456758</v>
       </c>
       <c r="AE3" t="n">
-        <v>159392.3367224682</v>
+        <v>190208.7717245402</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.344175067522051e-06</v>
+        <v>8.606610622577779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.76953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>144180.1558142693</v>
+        <v>172055.5135108916</v>
       </c>
     </row>
   </sheetData>
